--- a/HackathonQuestionBank.xlsx
+++ b/HackathonQuestionBank.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alexandra/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alexandra/Documents/Hackathon2020/hackathon-quiz-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7987D0FB-0600-8340-9870-AA2AD3F7EFAE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466D1017-9AAB-C14A-9BE9-4FAE7C4C71F2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14640" xr2:uid="{29F37292-72BF-1549-B932-D39418817159}"/>
+    <workbookView xWindow="1820" yWindow="460" windowWidth="25440" windowHeight="14580" xr2:uid="{29F37292-72BF-1549-B932-D39418817159}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="178">
   <si>
     <t>Question</t>
   </si>
@@ -60,39 +60,24 @@
     <t>No</t>
   </si>
   <si>
-    <t>What is the minimum number of infective virus particles are needed to make somone sick with the flu?</t>
-  </si>
-  <si>
     <t>New England Journal of Medicine, https://www.nejm.org/doi/full/10.1056/NEJMra021771?url_ver=Z39.88-2003&amp;rfr_id=ori%3Arid%3Acrossref.org&amp;rfr_dat=cr_pub%3Dpubmed</t>
   </si>
   <si>
     <t>What is a fomite?</t>
   </si>
   <si>
-    <t>An object likely to carry infectious material</t>
-  </si>
-  <si>
-    <t>{A state of the art mask, An eradicated disease, Something used at a hospital, An object likely to carry infectious material}</t>
-  </si>
-  <si>
     <t>COVID</t>
   </si>
   <si>
     <t xml:space="preserve">True </t>
   </si>
   <si>
-    <t>What city is it believed that the COVID-19 outbreak start in?</t>
-  </si>
-  <si>
     <t>Wuhan</t>
   </si>
   <si>
     <t>What is a coronavirus?</t>
   </si>
   <si>
-    <t>A virus that causes an infection in your nose, sinuses, or throat</t>
-  </si>
-  <si>
     <t>Choice 1</t>
   </si>
   <si>
@@ -138,15 +123,9 @@
     <t>A bacterial disease</t>
   </si>
   <si>
-    <t>COVID-19 is a type of coronavirus?</t>
-  </si>
-  <si>
     <t xml:space="preserve">False </t>
   </si>
   <si>
-    <t>COVID-19 is the only type of coronavirus?</t>
-  </si>
-  <si>
     <t>What is another type of coronavirus?</t>
   </si>
   <si>
@@ -162,9 +141,6 @@
     <t>HIV</t>
   </si>
   <si>
-    <t>What country did the COVID-19 pandemic begin in?</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
@@ -198,9 +174,6 @@
     <t>CDC https://www.cdc.gov/handwashing/when-how-handwashing.html#:~:text=Wet%20your%20hands%20with%20clean,for%20at%20least%2020%20seconds.</t>
   </si>
   <si>
-    <t>How many times should you sing Happy Birthday while washing your hands?</t>
-  </si>
-  <si>
     <t>Twice</t>
   </si>
   <si>
@@ -216,18 +189,9 @@
     <t>What's the best way to wash your hands?</t>
   </si>
   <si>
-    <t>By using soap and water, because the soap helps lifts more dirt and bacteria off your hands.</t>
-  </si>
-  <si>
     <t>Just water. Soap isn't necessary.</t>
   </si>
   <si>
-    <t>With no soap and only cold water to kill any bacteria on your hands.</t>
-  </si>
-  <si>
-    <t>It doesn't matter. Water by itself s just as good as water and soap together.</t>
-  </si>
-  <si>
     <t>What is not a way that diseases are transmitted?</t>
   </si>
   <si>
@@ -270,27 +234,401 @@
     <t>Measles</t>
   </si>
   <si>
-    <t>What is the minimum percent of the population should have herd immunity to stop the spread of disease?</t>
-  </si>
-  <si>
     <t>When doctors form groups, called "herds," to immunize large populations.</t>
   </si>
   <si>
-    <t xml:space="preserve">When most of the population is immune to an infectious disease and this protects the people who have not yet had it. </t>
-  </si>
-  <si>
-    <t>When the people who are sick from an infectious disease isolate themselves in a community, called a "herd,"  to protect those who are not yet sick.</t>
-  </si>
-  <si>
     <t>High Estimate of Residual Disease (HERD) Immunity</t>
+  </si>
+  <si>
+    <t>What is the scientific name of the virus that causes COVID-19?</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2</t>
+  </si>
+  <si>
+    <t>MERS-CoV</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov/coronavirus/mers/about/index.html</t>
+  </si>
+  <si>
+    <t>Where does the name "corona"-virus come from?</t>
+  </si>
+  <si>
+    <t>The coronavirus family has the the "kings" of viruses. The word "corona" means "crown" in Greek.</t>
+  </si>
+  <si>
+    <t>Corona was the name of the city in which the first Coronavirus was discovered.</t>
+  </si>
+  <si>
+    <t>The scientist who discovered the first coronavirus liked Corona beer.</t>
+  </si>
+  <si>
+    <t>How many coronaviruses infect humans?</t>
+  </si>
+  <si>
+    <t>Proning (placing patients on their stomaches)</t>
+  </si>
+  <si>
+    <t>IV Fluids</t>
+  </si>
+  <si>
+    <t>Nicotine Patches</t>
+  </si>
+  <si>
+    <t>Intubations</t>
+  </si>
+  <si>
+    <t>What non-invasive practice reduces the chance that a COVID-19 patient will have to use a ventilator?</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov/coronavirus/mers/photos.html</t>
+  </si>
+  <si>
+    <t>https://www.cdc.gov/coronavirus/types.html</t>
+  </si>
+  <si>
+    <t>COVID-19</t>
+  </si>
+  <si>
+    <t>https://www.medicalnewstoday.com/articles/how-do-sars-and-mers-compare-with-covid-19#MERS</t>
+  </si>
+  <si>
+    <t>What country did the 2012 MERS outbreak begin in?</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>What country first reported cases of MERS in 2012</t>
+  </si>
+  <si>
+    <t>Is a virus alive?</t>
+  </si>
+  <si>
+    <t>Only in a host.</t>
+  </si>
+  <si>
+    <t>It depends on the virus.</t>
+  </si>
+  <si>
+    <t>Camels</t>
+  </si>
+  <si>
+    <t>Bats</t>
+  </si>
+  <si>
+    <t>Ferrets</t>
+  </si>
+  <si>
+    <t>Armadillo</t>
+  </si>
+  <si>
+    <t>https://jamanetwork.com/journals/jama/fullarticle/2766292</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>Why does wearing a mask help prevent the spread of COVID-19?</t>
+  </si>
+  <si>
+    <t>It doesn't. People who think it does are delusional.</t>
+  </si>
+  <si>
+    <t>It only helps when someone is symptomatic (coughing or sneezing).</t>
+  </si>
+  <si>
+    <t>Who should carry garlic to prevent the coronavirus?</t>
+  </si>
+  <si>
+    <t>No one.</t>
+  </si>
+  <si>
+    <t>Vampires</t>
+  </si>
+  <si>
+    <t>People in crowded areas. The garlic smell will make people less likely to get near you.</t>
+  </si>
+  <si>
+    <t>Doctors</t>
+  </si>
+  <si>
+    <t>What is a possible complication of COVID-19?</t>
+  </si>
+  <si>
+    <t>T-cell mutilation</t>
+  </si>
+  <si>
+    <t>Bone marrow collapse</t>
+  </si>
+  <si>
+    <t>Vein atrophy</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1359610120300927</t>
+  </si>
+  <si>
+    <t>What is the most variable part of the coronavirus genome?</t>
+  </si>
+  <si>
+    <t>The Nuclear Capsule Structure (NCS)</t>
+  </si>
+  <si>
+    <t>The Receptor Binding Domain (RBD) in the spike protein</t>
+  </si>
+  <si>
+    <t>Membrane Elasticity Quotient (MEQ)</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The virus shape </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Anderson et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The proximal origin of SARS-CoV-2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Nature Medicine</t>
+    </r>
+  </si>
+  <si>
+    <t>What biosafety level must scientists studying SARS work in?</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>Level 4</t>
+  </si>
+  <si>
+    <t>Can COVID-19 be transmitted through a blood transfusion?</t>
+  </si>
+  <si>
+    <t>It is unlikely but scientists do not yet have enough data.</t>
+  </si>
+  <si>
+    <t>Only if the person is highly infectious.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Katz, L. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Is SARS-CoV-2 transfusion transmitted? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transfusion 2020</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.webmd.com/lung/coronavirus-transmission-overview#1-2</t>
+  </si>
+  <si>
+    <t>How many viruses affect humans?</t>
+  </si>
+  <si>
+    <t>Over 200</t>
+  </si>
+  <si>
+    <t>Less than 100</t>
+  </si>
+  <si>
+    <t>Only COVID-19</t>
+  </si>
+  <si>
+    <t>Too many to accurately identify.</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3427559/</t>
+  </si>
+  <si>
+    <t>How many times should you sing the ABCs while washing your hands?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An eradicated disease</t>
+  </si>
+  <si>
+    <t>A state of the art mask</t>
+  </si>
+  <si>
+    <t>Something used at a hospital</t>
+  </si>
+  <si>
+    <t>What animal is suspected to be a resevoir host of MERS?</t>
+  </si>
+  <si>
+    <t>It makes you look unfriendly. People are less likely to get near you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An object that can spread an infectious disease if contaminated. </t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>How many infectious virus particles can make somone sick with the flu?</t>
+  </si>
+  <si>
+    <t>In which city was COVID-19 first identified?</t>
+  </si>
+  <si>
+    <t>A virus that causes a respiratory</t>
+  </si>
+  <si>
+    <t>True/False: COVID-19 is a type of coronavirus?</t>
+  </si>
+  <si>
+    <t>True/False: COVID-19 is the only type of coronavirus?</t>
+  </si>
+  <si>
+    <t>What country first reported cases of COVID-19?</t>
+  </si>
+  <si>
+    <t>Soap and water togther</t>
+  </si>
+  <si>
+    <t>Only cold water to kill bacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It doesn't matter. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When infectious people isolate themselves in a community, called a "herd."  </t>
+  </si>
+  <si>
+    <t>When the spread of an infectious disease is limited becausea high proportion of a society is immune</t>
+  </si>
+  <si>
+    <t>Because there is currently no vaccine.</t>
+  </si>
+  <si>
+    <t>It's a new virus.</t>
+  </si>
+  <si>
+    <t>We have used social distancing to limit infections.</t>
+  </si>
+  <si>
+    <t>What is NOT a reason why there is no herd immunity to COVID-19?</t>
+  </si>
+  <si>
+    <t>Most people have already had the disease.</t>
+  </si>
+  <si>
+    <t>Which of these actions would "flatten the curve"?</t>
+  </si>
+  <si>
+    <t>If you infected 10 people.</t>
+  </si>
+  <si>
+    <t>If you infected 5 people.</t>
+  </si>
+  <si>
+    <t>If you infected 1.5.</t>
+  </si>
+  <si>
+    <t>If you infect 0.8 people.</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/2020/04/23/world/europe/coronavirus-R0-explainer.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under a microscope the virus has a pointy halo called a  "corona." </t>
+  </si>
+  <si>
+    <t>Which coronavirus has the highest mortality rate in humans?</t>
+  </si>
+  <si>
+    <t>True/False: Drinking lots of orange juice can help prevent the spread of COVID-19.</t>
+  </si>
+  <si>
+    <t>Data suggests it prevents you from spreading the diesease to others.</t>
+  </si>
+  <si>
+    <t>True/False: A mask is effective when it covers just your mouth and not your nose.</t>
+  </si>
+  <si>
+    <t>True/False: Cloth masks do not prevent the spread of COVID-19.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytokine storm, or an uncontrolled inflammtory response. </t>
+  </si>
+  <si>
+    <t>True/False: Scientists have confirmed that COVID-19 can be spread through droplets.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -315,15 +653,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -636,16 +977,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B46F2FE-07E2-F446-B491-B1177B4A67C5}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14" customWidth="1"/>
   </cols>
@@ -654,17 +995,17 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -679,14 +1020,14 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
+        <v>148</v>
+      </c>
+      <c r="B2" s="3">
         <v>3</v>
       </c>
       <c r="C2">
@@ -705,33 +1046,33 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" t="s">
-        <v>71</v>
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -740,99 +1081,105 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>141</v>
+      </c>
+      <c r="D6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" t="s">
+        <v>142</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
+        <v>149</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -843,22 +1190,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -869,16 +1216,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="b">
-        <v>1</v>
+        <v>151</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -889,13 +1236,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="b">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -909,19 +1256,19 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -935,22 +1282,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
+        <v>153</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
         <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -961,28 +1308,28 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
+        <v>42</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -993,143 +1340,143 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
+        <v>139</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" t="s">
-        <v>63</v>
+        <v>53</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" t="s">
-        <v>75</v>
+        <v>61</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" t="s">
-        <v>83</v>
+        <v>162</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.99999000000000005</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.5</v>
+        <v>64</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" t="s">
-        <v>75</v>
+        <v>65</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
@@ -1137,8 +1484,586 @@
       <c r="G19" t="b">
         <v>0</v>
       </c>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="3">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>122</v>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>122</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" t="s">
+        <v>120</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>131</v>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" t="s">
+        <v>165</v>
+      </c>
+      <c r="D40" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" t="s">
+        <v>120</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H20" r:id="rId1" xr:uid="{48FC04A3-FDA5-E64F-999D-5AB02957FF32}"/>
+    <hyperlink ref="H23" r:id="rId2" xr:uid="{96431AF0-3059-AF40-9408-606885A79BA0}"/>
+    <hyperlink ref="H24" r:id="rId3" location="MERS" display="https://www.medicalnewstoday.com/articles/how-do-sars-and-mers-compare-with-covid-19 - MERS" xr:uid="{CC28F81E-A36F-164E-A176-CA8C3F9397F6}"/>
+    <hyperlink ref="H25" r:id="rId4" xr:uid="{257A95D2-26A7-834C-9544-A626A799D6BD}"/>
+    <hyperlink ref="H26:H27" r:id="rId5" display="https://www.cdc.gov/coronavirus/mers/about/index.html" xr:uid="{67FBD3A0-9C48-0244-9661-9060BBD54685}"/>
+    <hyperlink ref="H34" r:id="rId6" xr:uid="{B26F9DA2-E8B6-AC44-9D1B-192577658086}"/>
+    <hyperlink ref="H38" r:id="rId7" location="1-2" display="https://www.webmd.com/lung/coronavirus-transmission-overview - 1-2" xr:uid="{630B6DFF-EB3D-CF40-A338-2A1D7F0F64E2}"/>
+    <hyperlink ref="H39" r:id="rId8" xr:uid="{941832BC-08CC-354C-A068-38852586CD36}"/>
+    <hyperlink ref="H40" r:id="rId9" xr:uid="{8ED7B730-FC12-D84C-8EAB-55F981DF492B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/HackathonQuestionBank.xlsx
+++ b/HackathonQuestionBank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alexandra/Documents/Hackathon2020/hackathon-quiz-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466D1017-9AAB-C14A-9BE9-4FAE7C4C71F2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C6157F-EBCD-C84B-925E-40B198ED4123}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1820" yWindow="460" windowWidth="25440" windowHeight="14580" xr2:uid="{29F37292-72BF-1549-B932-D39418817159}"/>
   </bookViews>
@@ -523,9 +523,6 @@
     <t>In which city was COVID-19 first identified?</t>
   </si>
   <si>
-    <t>A virus that causes a respiratory</t>
-  </si>
-  <si>
     <t>True/False: COVID-19 is a type of coronavirus?</t>
   </si>
   <si>
@@ -605,6 +602,9 @@
   </si>
   <si>
     <t>True/False: Scientists have confirmed that COVID-19 can be spread through droplets.</t>
+  </si>
+  <si>
+    <t>A virus that causes a respiratory infection</t>
   </si>
 </sst>
 </file>
@@ -980,7 +980,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1193,7 +1193,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>146</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>147</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>38</v>
@@ -1369,16 +1369,16 @@
         <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
         <v>54</v>
       </c>
       <c r="D15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" t="s">
         <v>155</v>
-      </c>
-      <c r="E15" t="s">
-        <v>156</v>
       </c>
       <c r="F15" t="s">
         <v>47</v>
@@ -1418,19 +1418,19 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="C17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" t="s">
         <v>159</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>160</v>
-      </c>
-      <c r="E17" t="s">
-        <v>161</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
@@ -1441,10 +1441,10 @@
         <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" t="s">
         <v>70</v>
@@ -1522,7 +1522,7 @@
         <v>75</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C21" t="s">
         <v>78</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>34</v>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>147</v>
@@ -1771,7 +1771,7 @@
         <v>103</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C30" t="s">
         <v>144</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>147</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>32</v>
@@ -1863,7 +1863,7 @@
         <v>111</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C34" t="s">
         <v>112</v>
@@ -1976,7 +1976,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>146</v>
@@ -2028,25 +2028,25 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" t="s">
         <v>164</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>165</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>166</v>
-      </c>
-      <c r="E40" t="s">
-        <v>167</v>
       </c>
       <c r="F40" t="s">
         <v>120</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J40" t="b">
         <v>1</v>

--- a/HackathonQuestionBank.xlsx
+++ b/HackathonQuestionBank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alexandra/Documents/Hackathon2020/hackathon-quiz-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C6157F-EBCD-C84B-925E-40B198ED4123}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5486FADB-FA0A-1443-B447-63B5718C24CD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1820" yWindow="460" windowWidth="25440" windowHeight="14580" xr2:uid="{29F37292-72BF-1549-B932-D39418817159}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="175">
   <si>
     <t>Question</t>
   </si>
@@ -253,9 +253,6 @@
   </si>
   <si>
     <t>Where does the name "corona"-virus come from?</t>
-  </si>
-  <si>
-    <t>The coronavirus family has the the "kings" of viruses. The word "corona" means "crown" in Greek.</t>
   </si>
   <si>
     <t>Corona was the name of the city in which the first Coronavirus was discovered.</t>
@@ -419,21 +416,6 @@
     </r>
   </si>
   <si>
-    <t>What biosafety level must scientists studying SARS work in?</t>
-  </si>
-  <si>
-    <t>Level 2</t>
-  </si>
-  <si>
-    <t>Level 1</t>
-  </si>
-  <si>
-    <t>Level 3</t>
-  </si>
-  <si>
-    <t>Level 4</t>
-  </si>
-  <si>
     <t>Can COVID-19 be transmitted through a blood transfusion?</t>
   </si>
   <si>
@@ -502,9 +484,6 @@
     <t>Something used at a hospital</t>
   </si>
   <si>
-    <t>What animal is suspected to be a resevoir host of MERS?</t>
-  </si>
-  <si>
     <t>It makes you look unfriendly. People are less likely to get near you.</t>
   </si>
   <si>
@@ -544,9 +523,6 @@
     <t xml:space="preserve">When infectious people isolate themselves in a community, called a "herd."  </t>
   </si>
   <si>
-    <t>When the spread of an infectious disease is limited becausea high proportion of a society is immune</t>
-  </si>
-  <si>
     <t>Because there is currently no vaccine.</t>
   </si>
   <si>
@@ -601,10 +577,25 @@
     <t xml:space="preserve">Cytokine storm, or an uncontrolled inflammtory response. </t>
   </si>
   <si>
-    <t>True/False: Scientists have confirmed that COVID-19 can be spread through droplets.</t>
-  </si>
-  <si>
     <t>A virus that causes a respiratory infection</t>
+  </si>
+  <si>
+    <t>When the spread of an infectious disease is limited because a high proportion of a society is immune</t>
+  </si>
+  <si>
+    <t>True/False: Data suggests that COVID-19 can be spread through droplets.</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>How many levels of biosafety laboratories are there?</t>
+  </si>
+  <si>
+    <t>What animals are suspected to be a resevoir host of MERS?</t>
+  </si>
+  <si>
+    <t>The coronavirus family has the the "king" of viruses. The word "corona" means "crown" in Greek.</t>
   </si>
 </sst>
 </file>
@@ -980,7 +971,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1025,7 +1016,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B2" s="3">
         <v>3</v>
@@ -1141,19 +1132,19 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -1164,7 +1155,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
@@ -1193,7 +1184,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1216,10 +1207,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -1236,10 +1227,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -1282,7 +1273,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>38</v>
@@ -1340,7 +1331,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>49</v>
@@ -1369,16 +1360,16 @@
         <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
         <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E15" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F15" t="s">
         <v>47</v>
@@ -1407,7 +1398,7 @@
         <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -1418,19 +1409,19 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D17" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E17" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
@@ -1441,10 +1432,10 @@
         <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s">
         <v>70</v>
@@ -1502,10 +1493,10 @@
         <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1522,16 +1513,16 @@
         <v>75</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" t="s">
         <v>76</v>
-      </c>
-      <c r="E21" t="s">
-        <v>77</v>
       </c>
       <c r="F21" t="s">
         <v>47</v>
@@ -1540,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J21" t="b">
         <v>1</v>
@@ -1548,19 +1539,19 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
         <v>80</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>81</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>82</v>
-      </c>
-      <c r="E22" t="s">
-        <v>83</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
@@ -1569,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J22" t="b">
         <v>1</v>
@@ -1577,7 +1568,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" s="3">
         <v>7</v>
@@ -1598,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J23" t="b">
         <v>1</v>
@@ -1606,7 +1597,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>34</v>
@@ -1615,19 +1606,19 @@
         <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
         <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
@@ -1635,22 +1626,22 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
         <v>89</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" t="s">
-        <v>90</v>
       </c>
       <c r="D25" t="s">
         <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1664,13 +1655,13 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
         <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>91</v>
       </c>
       <c r="D26" t="s">
         <v>38</v>
@@ -1693,19 +1684,19 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
         <v>97</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>98</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>99</v>
-      </c>
-      <c r="E27" t="s">
-        <v>100</v>
       </c>
       <c r="F27" t="s">
         <v>47</v>
@@ -1722,7 +1713,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>10</v>
@@ -1731,10 +1722,10 @@
         <v>23</v>
       </c>
       <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" t="s">
         <v>95</v>
-      </c>
-      <c r="E28" t="s">
-        <v>96</v>
       </c>
       <c r="F28" t="s">
         <v>47</v>
@@ -1748,16 +1739,16 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1768,19 +1759,19 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>104</v>
-      </c>
-      <c r="E30" t="s">
-        <v>105</v>
       </c>
       <c r="F30" t="s">
         <v>47</v>
@@ -1794,10 +1785,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -1814,7 +1805,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>32</v>
@@ -1834,19 +1825,19 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" t="s">
         <v>107</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>108</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>109</v>
-      </c>
-      <c r="E33" t="s">
-        <v>110</v>
       </c>
       <c r="F33" t="s">
         <v>47</v>
@@ -1860,19 +1851,19 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>112</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>113</v>
-      </c>
-      <c r="E34" t="s">
-        <v>114</v>
       </c>
       <c r="F34" t="s">
         <v>6</v>
@@ -1881,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J34" t="b">
         <v>1</v>
@@ -1889,28 +1880,28 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="E35" t="s">
         <v>118</v>
       </c>
-      <c r="C35" t="s">
+      <c r="F35" t="s">
+        <v>119</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
         <v>121</v>
-      </c>
-      <c r="D35" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" t="s">
-        <v>119</v>
-      </c>
-      <c r="F35" t="s">
-        <v>120</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
-        <v>122</v>
       </c>
       <c r="J35" t="b">
         <v>1</v>
@@ -1918,28 +1909,28 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" t="s">
-        <v>127</v>
+        <v>171</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J36" t="b">
         <v>1</v>
@@ -1947,10 +1938,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C37" t="s">
         <v>23</v>
@@ -1959,16 +1950,16 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J37" t="b">
         <v>1</v>
@@ -1976,10 +1967,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C38" t="s">
         <v>32</v>
@@ -1991,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J38" t="b">
         <v>1</v>
@@ -1999,19 +1990,19 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E39" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F39" t="s">
         <v>6</v>
@@ -2020,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J39" t="s">
         <v>32</v>
@@ -2028,25 +2019,25 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D40" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E40" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J40" t="b">
         <v>1</v>
